--- a/biology/Origine et évolution du vivant/Louis_Bolk/Louis_Bolk.xlsx
+++ b/biology/Origine et évolution du vivant/Louis_Bolk/Louis_Bolk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Bolk (Overschie, 10 décembre 1866 – Amsterdam, 17 juin 1930) est un anatomiste et biologiste néerlandais du XIXe siècle et du XXe siècle.
-Chercheur brillant ayant acquis une très grande autorité nationale (à la fin de sa carrière tous les enseignants néerlandais d’anatomie sont de ses anciens élèves) comme internationale, il est à l’origine de l’International Academic Committee for Brain Research afin de la structurer les  recherches internationales sur le système nerveux[1].
-Il est resté célèbre pour sa théorie de la fœtalisation selon laquelle l'homme serait un primate ayant conservé dans sa forme adulte, des caractères fœtaux, comme l'important rapport neurocrâne-face, alors que celui-ci s'inverse avec la croissance chez le gorille et le chimpanzé, avec lesquels l'homme partage pourtant un ancêtre commun. Ainsi, ce sont les rythmes de croissance intra-utérins de cet ancêtre commun, avec un cerveau se développant plus longtemps que la face, qui ont été conservés jusqu'au stade adulte[2]. À ne pas confondre avec la néoténie qui est la conservation jusqu'au stade adulte, d'un état embryonnaire.
-Cette théorie de la fœtalisation est évoquée à plusieurs reprises par Jacques Lacan pour justifier son stade du miroir[1].
-Resté célibataire, on ne lui connaît pas de descendance[1].
+Chercheur brillant ayant acquis une très grande autorité nationale (à la fin de sa carrière tous les enseignants néerlandais d’anatomie sont de ses anciens élèves) comme internationale, il est à l’origine de l’International Academic Committee for Brain Research afin de la structurer les  recherches internationales sur le système nerveux.
+Il est resté célèbre pour sa théorie de la fœtalisation selon laquelle l'homme serait un primate ayant conservé dans sa forme adulte, des caractères fœtaux, comme l'important rapport neurocrâne-face, alors que celui-ci s'inverse avec la croissance chez le gorille et le chimpanzé, avec lesquels l'homme partage pourtant un ancêtre commun. Ainsi, ce sont les rythmes de croissance intra-utérins de cet ancêtre commun, avec un cerveau se développant plus longtemps que la face, qui ont été conservés jusqu'au stade adulte. À ne pas confondre avec la néoténie qui est la conservation jusqu'au stade adulte, d'un état embryonnaire.
+Cette théorie de la fœtalisation est évoquée à plusieurs reprises par Jacques Lacan pour justifier son stade du miroir.
+Resté célibataire, on ne lui connaît pas de descendance.
 </t>
         </is>
       </c>
